--- a/Sensorium_use_4_talks.xlsx
+++ b/Sensorium_use_4_talks.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">Computational models of animal behavior can test hypotheses and reveal limitations in knowledge or understanding. While simulation is a valuable tool, modeling complex sensory behavior is often complicated by the need to select values for unknown model parameters. Moreover, realistically simulating the sensory input experienced by animals is far from trivial. In our computational work on echolocation in bats, we are currently exploring whether machine learning can aid in automatically selecting parameters for models of sensorimotor behavior. We tasked a simulated agent (bat) with moving around an arena constructed of vegetation-like obstacles and approaching objects labeled as food. We postulated bats can successfully forage by appropriately switching between two sensorimotor loops. Using the current sensory input, a neural network activate the governing sensorimotor loop between the two, allowing for a complex mapping between sensory input and actions. We used reinforcement learning to parametrize the neural network. To ensure the acoustic veracity of our simulation environment, we use acoustic data collected using a physical sonar sensor to supply the simulator with a realistic acoustic model of a complex environment. Our results demonstrate the feasibility of using automatic parameter selection in simulation while maintaining the realism of the modeled sensory input.</t>
   </si>
   <si>
-    <t xml:space="preserve">Klara Katarina Nordén (Department of Ecology and Evolutionary Biology, Princeton University)</t>
+    <t xml:space="preserve">Klara Katarina Nordén</t>
   </si>
   <si>
     <t xml:space="preserve">knorden@princeton.edu</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">rathorst@mail.uc.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">Ruby Hyland-Brown, Augusta Jester, Isaac Wolff, Joshua Benoit and Elke Buschbeck (University of Cincinnati)</t>
+    <t xml:space="preserve">Ruby Hyland-Brown; Augusta Jester; Isaac Wolff; Joshua Benoit; Elke Buschbeck (University of Cincinnati)</t>
   </si>
   <si>
     <t xml:space="preserve">Osmotic pressure and eye growth in the larval eyes of the Sunburst diving beetle Thermonectus marmoratus</t>
@@ -662,9 +662,6 @@
     <t xml:space="preserve">Oral presentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Klara Katarina Nordén</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modeling sensorimotor behavior in echolocating bats with machine learning</t>
   </si>
   <si>
@@ -747,6 +744,9 @@
   </si>
   <si>
     <t xml:space="preserve">Presenter and talk titles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klara Katarina Nordén (Department of Ecology and Evolutionary Biology, Princeton University)</t>
   </si>
   <si>
     <t xml:space="preserve">Sensorium 2022 Schedule - Saturday 19 November</t>
@@ -1315,12 +1315,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1329,6 +1329,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1353,10 +1357,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1456,7 +1456,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q998"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1464,19 +1464,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="137.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="137.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -1519,7 +1519,7 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -1567,7 +1567,7 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -1582,7 +1582,7 @@
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="4" t="n">
@@ -1608,7 +1608,7 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
@@ -1624,1155 +1624,126 @@
         <v>0.458333333333333</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2791,406 +1762,406 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="296.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="119.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="296.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="119.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="10" t="n">
         <v>0.375</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="10" t="n">
         <v>0.385416666666667</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="10" t="n">
         <v>0.395833333333333</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="10" t="n">
         <v>0.40625</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="10" t="n">
         <v>0.0625</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="10" t="n">
         <v>0.0729166666666667</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="10" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="10" t="n">
         <v>0.09375</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="10" t="n">
         <v>0.104166666666667</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="10" t="n">
         <v>0.114583333333333</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="10" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="10" t="n">
         <v>0.177083333333333</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="10" t="n">
         <v>0.1875</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="10" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="10" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3201,19 +2172,19 @@
       <c r="B17" s="4" t="n">
         <v>0.21875</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4226,7 +3197,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="159.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="159.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4251,7 +3222,7 @@
       <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4275,7 +3246,7 @@
       <c r="G2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4299,7 +3270,7 @@
       <c r="G3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4323,7 +3294,7 @@
       <c r="G4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4347,7 +3318,7 @@
       <c r="G5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4371,7 +3342,7 @@
       <c r="G6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4395,7 +3366,7 @@
       <c r="G7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="5" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4419,7 +3390,7 @@
       <c r="G8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4440,7 +3411,7 @@
       <c r="G9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4464,7 +3435,7 @@
       <c r="G10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4488,7 +3459,7 @@
       <c r="G11" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="5" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4512,7 +3483,7 @@
       <c r="G12" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4536,7 +3507,7 @@
       <c r="G13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4560,7 +3531,7 @@
       <c r="G14" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4584,7 +3555,7 @@
       <c r="G15" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="5" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4608,7 +3579,7 @@
       <c r="G16" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="5" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4632,7 +3603,7 @@
       <c r="G17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="5" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4656,7 +3627,7 @@
       <c r="G18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4680,7 +3651,7 @@
       <c r="G19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4704,7 +3675,7 @@
       <c r="G20" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="5" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4728,7 +3699,7 @@
       <c r="G21" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="5" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4752,7 +3723,7 @@
       <c r="G22" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="5" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4776,7 +3747,7 @@
       <c r="G23" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="5" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4800,7 +3771,7 @@
       <c r="G24" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4824,55 +3795,55 @@
       <c r="G25" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12"/>
@@ -7817,8 +6788,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="70.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7837,7 +6808,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>45</v>
@@ -7857,7 +6828,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>210</v>
@@ -7865,7 +6836,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>30</v>
@@ -7955,7 +6926,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>210</v>
@@ -8036,13 +7007,13 @@
         <v>155</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8050,13 +7021,13 @@
         <v>163</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>165</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8064,13 +7035,13 @@
         <v>187</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8078,13 +7049,13 @@
         <v>132</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8098,7 +7069,7 @@
         <v>92</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8106,13 +7077,13 @@
         <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,13 +7091,13 @@
         <v>167</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8134,13 +7105,13 @@
         <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8148,13 +7119,13 @@
         <v>171</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8162,13 +7133,13 @@
         <v>112</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8176,13 +7147,13 @@
         <v>195</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8190,13 +7161,13 @@
         <v>175</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8204,13 +7175,13 @@
         <v>116</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8218,13 +7189,13 @@
         <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8232,13 +7203,13 @@
         <v>148</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8246,13 +7217,13 @@
         <v>120</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8260,13 +7231,13 @@
         <v>191</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8274,13 +7245,13 @@
         <v>144</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8288,13 +7259,13 @@
         <v>179</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8302,13 +7273,13 @@
         <v>140</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8316,13 +7287,13 @@
         <v>159</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8330,13 +7301,13 @@
         <v>151</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>153</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8344,13 +7315,13 @@
         <v>183</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8358,13 +7329,13 @@
         <v>124</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -8391,58 +7362,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="83.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="83.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="E1" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="10" t="n">
         <v>0.375</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="3" t="str">
@@ -8451,16 +7422,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="10" t="n">
         <v>0.385416666666667</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="3" t="str">
@@ -8469,16 +7440,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="10" t="n">
         <v>0.395833333333333</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="3" t="str">
@@ -8487,16 +7458,16 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="10" t="n">
         <v>0.40625</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="3" t="str">
@@ -8505,16 +7476,16 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="10" t="n">
         <v>0.0625</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="3" t="str">
@@ -8523,16 +7494,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="10" t="n">
         <v>0.0729166666666667</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="3" t="str">
@@ -8541,16 +7512,16 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="10" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="3" t="str">
@@ -8559,16 +7530,16 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="10" t="n">
         <v>0.09375</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="3" t="str">
@@ -8577,16 +7548,16 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="10" t="n">
         <v>0.104166666666667</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="3" t="str">
@@ -8595,16 +7566,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="10" t="n">
         <v>0.114583333333333</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="3" t="str">
@@ -8613,16 +7584,16 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="10" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="3" t="str">
@@ -8631,16 +7602,16 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="10" t="n">
         <v>0.177083333333333</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="3" t="str">
@@ -8649,16 +7620,16 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="10" t="n">
         <v>0.1875</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="3" t="str">
@@ -8667,16 +7638,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="10" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="3" t="str">
@@ -8685,16 +7656,16 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="10" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="3" t="str">
@@ -8709,10 +7680,10 @@
       <c r="B17" s="4" t="n">
         <v>0.21875</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E17" s="3" t="str">
@@ -8726,8 +7697,8 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
@@ -8735,7 +7706,7 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
@@ -8743,47 +7714,47 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="9" t="n">
+      <c r="A23" s="7"/>
+      <c r="B23" s="10" t="n">
         <v>0.375</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9" t="n">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10" t="n">
         <v>0.385416666666667</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9" t="n">
+      <c r="A25" s="7"/>
+      <c r="B25" s="10" t="n">
         <v>0.395833333333333</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9" t="n">
+      <c r="A26" s="7"/>
+      <c r="B26" s="10" t="n">
         <v>0.40625</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="s">
@@ -8791,27 +7762,27 @@
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15"/>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="10" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="10" t="n">
         <v>0.427083333333333</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
@@ -8819,17 +7790,17 @@
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="9" t="n">
+      <c r="A31" s="7"/>
+      <c r="B31" s="10" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
@@ -8837,7 +7808,7 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="s">
@@ -8845,67 +7816,67 @@
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="9" t="n">
+      <c r="A34" s="7"/>
+      <c r="B34" s="10" t="n">
         <v>0.0625</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="9" t="n">
+      <c r="A35" s="7"/>
+      <c r="B35" s="10" t="n">
         <v>0.0729166666666667</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="9" t="n">
+      <c r="A36" s="7"/>
+      <c r="B36" s="10" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="9" t="n">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10" t="n">
         <v>0.09375</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="9" t="n">
+      <c r="A38" s="7"/>
+      <c r="B38" s="10" t="n">
         <v>0.104166666666667</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
-      <c r="B39" s="9" t="n">
+      <c r="A39" s="7"/>
+      <c r="B39" s="10" t="n">
         <v>0.114583333333333</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="s">
@@ -8913,27 +7884,27 @@
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15"/>
-      <c r="B41" s="9" t="n">
+      <c r="B41" s="10" t="n">
         <v>0.125</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15"/>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="10" t="n">
         <v>0.135416666666667</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="s">
@@ -8941,66 +7912,66 @@
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="4" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
-      <c r="B45" s="9" t="n">
+      <c r="A45" s="7"/>
+      <c r="B45" s="10" t="n">
         <v>0.177083333333333</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
-      <c r="B46" s="9" t="n">
+      <c r="A46" s="7"/>
+      <c r="B46" s="10" t="n">
         <v>0.1875</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9" t="n">
+      <c r="A47" s="7"/>
+      <c r="B47" s="10" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
-      <c r="B48" s="9" t="n">
+      <c r="A48" s="7"/>
+      <c r="B48" s="10" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="4" t="n">
         <v>0.21875</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">

--- a/Sensorium_use_4_talks.xlsx
+++ b/Sensorium_use_4_talks.xlsx
@@ -1310,7 +1310,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1343,7 +1343,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1760,71 +1768,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="9.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="296.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="119.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="12" t="n">
         <v>0.375</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1839,7 +1847,7 @@
       <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1847,7 +1855,7 @@
       <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="12" t="n">
         <v>0.385416666666667</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1862,7 +1870,7 @@
       <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1870,7 +1878,7 @@
       <c r="A4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="12" t="n">
         <v>0.395833333333333</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1885,7 +1893,7 @@
       <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1893,7 +1901,7 @@
       <c r="A5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="12" t="n">
         <v>0.40625</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1908,7 +1916,7 @@
       <c r="F5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1916,7 +1924,7 @@
       <c r="A6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="12" t="n">
         <v>0.0625</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1931,7 +1939,7 @@
       <c r="F6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1939,7 +1947,7 @@
       <c r="A7" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="12" t="n">
         <v>0.0729166666666667</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1954,7 +1962,7 @@
       <c r="F7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1962,7 +1970,7 @@
       <c r="A8" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="12" t="n">
         <v>0.0833333333333333</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1977,7 +1985,7 @@
       <c r="F8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1985,7 +1993,7 @@
       <c r="A9" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="12" t="n">
         <v>0.09375</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2000,7 +2008,7 @@
       <c r="F9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2008,7 +2016,7 @@
       <c r="A10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="12" t="n">
         <v>0.104166666666667</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2023,7 +2031,7 @@
       <c r="F10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2031,7 +2039,7 @@
       <c r="A11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="12" t="n">
         <v>0.114583333333333</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2046,7 +2054,7 @@
       <c r="F11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2054,7 +2062,7 @@
       <c r="A12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="12" t="n">
         <v>0.166666666666667</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2069,7 +2077,7 @@
       <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="13" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2077,7 +2085,7 @@
       <c r="A13" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="12" t="n">
         <v>0.177083333333333</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2092,7 +2100,7 @@
       <c r="F13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2100,7 +2108,7 @@
       <c r="A14" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="12" t="n">
         <v>0.1875</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2115,7 +2123,7 @@
       <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="13" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2123,7 +2131,7 @@
       <c r="A15" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="12" t="n">
         <v>0.197916666666667</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2138,7 +2146,7 @@
       <c r="F15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2146,7 +2154,7 @@
       <c r="A16" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="12" t="n">
         <v>0.208333333333333</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2161,7 +2169,7 @@
       <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="13" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2184,993 +2192,10 @@
       <c r="F17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3201,7 +2226,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3227,7 +2252,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="14" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
@@ -3251,7 +2276,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
@@ -3275,7 +2300,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="n">
@@ -3299,7 +2324,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="n">
@@ -3323,7 +2348,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="n">
@@ -3347,7 +2372,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="n">
@@ -3371,7 +2396,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="n">
@@ -3395,7 +2420,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="n">
@@ -3416,7 +2441,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="n">
@@ -3440,7 +2465,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="n">
@@ -3464,7 +2489,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="14" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="n">
@@ -3488,7 +2513,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="14" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="n">
@@ -3512,7 +2537,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="14" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="n">
@@ -3536,7 +2561,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="14" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="n">
@@ -3560,7 +2585,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="14" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="n">
@@ -3584,7 +2609,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="n">
@@ -3608,7 +2633,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="n">
@@ -3632,7 +2657,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="A19" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="n">
@@ -3656,7 +2681,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
+      <c r="A20" s="14" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="n">
@@ -3680,7 +2705,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="14" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="n">
@@ -3704,7 +2729,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="n">
@@ -3728,7 +2753,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
+      <c r="A23" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="n">
@@ -3752,7 +2777,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
+      <c r="A24" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="n">
@@ -3776,7 +2801,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+      <c r="A25" s="14" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="n">
@@ -3800,7 +2825,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="D26" s="5" t="s">
         <v>199</v>
       </c>
@@ -3818,7 +2843,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
+      <c r="A27" s="14"/>
       <c r="D27" s="5" t="s">
         <v>204</v>
       </c>
@@ -3836,7 +2861,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="D28" s="5" t="s">
         <v>209</v>
       </c>
@@ -3846,2923 +2871,2923 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
+      <c r="A29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
+      <c r="A30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
+      <c r="A31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
+      <c r="A34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
+      <c r="A35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
+      <c r="A37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
+      <c r="A38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
+      <c r="A39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
+      <c r="A40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
+      <c r="A41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
+      <c r="A42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
+      <c r="A43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
+      <c r="A44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12"/>
+      <c r="A45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12"/>
+      <c r="A46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12"/>
+      <c r="A47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12"/>
+      <c r="A48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12"/>
+      <c r="A49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12"/>
+      <c r="A50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12"/>
+      <c r="A51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12"/>
+      <c r="A52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12"/>
+      <c r="A53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12"/>
+      <c r="A54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12"/>
+      <c r="A55" s="14"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12"/>
+      <c r="A56" s="14"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12"/>
+      <c r="A57" s="14"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12"/>
+      <c r="A58" s="14"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12"/>
+      <c r="A59" s="14"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12"/>
+      <c r="A60" s="14"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12"/>
+      <c r="A61" s="14"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12"/>
+      <c r="A62" s="14"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12"/>
+      <c r="A63" s="14"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12"/>
+      <c r="A64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12"/>
+      <c r="A65" s="14"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12"/>
+      <c r="A66" s="14"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12"/>
+      <c r="A67" s="14"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12"/>
+      <c r="A68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12"/>
+      <c r="A69" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12"/>
+      <c r="A70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12"/>
+      <c r="A71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12"/>
+      <c r="A72" s="14"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12"/>
+      <c r="A73" s="14"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12"/>
+      <c r="A74" s="14"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12"/>
+      <c r="A75" s="14"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12"/>
+      <c r="A76" s="14"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12"/>
+      <c r="A77" s="14"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12"/>
+      <c r="A78" s="14"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12"/>
+      <c r="A79" s="14"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12"/>
+      <c r="A80" s="14"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12"/>
+      <c r="A81" s="14"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12"/>
+      <c r="A82" s="14"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12"/>
+      <c r="A83" s="14"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12"/>
+      <c r="A84" s="14"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12"/>
+      <c r="A85" s="14"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12"/>
+      <c r="A86" s="14"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12"/>
+      <c r="A87" s="14"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12"/>
+      <c r="A88" s="14"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12"/>
+      <c r="A89" s="14"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12"/>
+      <c r="A90" s="14"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12"/>
+      <c r="A91" s="14"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="12"/>
+      <c r="A92" s="14"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12"/>
+      <c r="A93" s="14"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12"/>
+      <c r="A94" s="14"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12"/>
+      <c r="A95" s="14"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="12"/>
+      <c r="A96" s="14"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12"/>
+      <c r="A97" s="14"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="12"/>
+      <c r="A98" s="14"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12"/>
+      <c r="A99" s="14"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="12"/>
+      <c r="A100" s="14"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12"/>
+      <c r="A101" s="14"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12"/>
+      <c r="A102" s="14"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12"/>
+      <c r="A103" s="14"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="12"/>
+      <c r="A104" s="14"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="12"/>
+      <c r="A105" s="14"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="12"/>
+      <c r="A106" s="14"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12"/>
+      <c r="A107" s="14"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12"/>
+      <c r="A108" s="14"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12"/>
+      <c r="A109" s="14"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12"/>
+      <c r="A110" s="14"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12"/>
+      <c r="A111" s="14"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12"/>
+      <c r="A112" s="14"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12"/>
+      <c r="A113" s="14"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12"/>
+      <c r="A114" s="14"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12"/>
+      <c r="A115" s="14"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="12"/>
+      <c r="A116" s="14"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="12"/>
+      <c r="A117" s="14"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="12"/>
+      <c r="A118" s="14"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12"/>
+      <c r="A119" s="14"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="12"/>
+      <c r="A120" s="14"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12"/>
+      <c r="A121" s="14"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="12"/>
+      <c r="A122" s="14"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12"/>
+      <c r="A123" s="14"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12"/>
+      <c r="A124" s="14"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12"/>
+      <c r="A125" s="14"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12"/>
+      <c r="A126" s="14"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12"/>
+      <c r="A127" s="14"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12"/>
+      <c r="A128" s="14"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12"/>
+      <c r="A129" s="14"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12"/>
+      <c r="A130" s="14"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12"/>
+      <c r="A131" s="14"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="12"/>
+      <c r="A132" s="14"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12"/>
+      <c r="A133" s="14"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="12"/>
+      <c r="A134" s="14"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12"/>
+      <c r="A135" s="14"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12"/>
+      <c r="A136" s="14"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="12"/>
+      <c r="A137" s="14"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="12"/>
+      <c r="A138" s="14"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12"/>
+      <c r="A139" s="14"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="12"/>
+      <c r="A140" s="14"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12"/>
+      <c r="A141" s="14"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12"/>
+      <c r="A142" s="14"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="12"/>
+      <c r="A143" s="14"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="12"/>
+      <c r="A144" s="14"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="12"/>
+      <c r="A145" s="14"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="12"/>
+      <c r="A146" s="14"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="12"/>
+      <c r="A147" s="14"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="12"/>
+      <c r="A148" s="14"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="12"/>
+      <c r="A149" s="14"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="12"/>
+      <c r="A150" s="14"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="12"/>
+      <c r="A151" s="14"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="12"/>
+      <c r="A152" s="14"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="12"/>
+      <c r="A153" s="14"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="12"/>
+      <c r="A154" s="14"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="12"/>
+      <c r="A155" s="14"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="12"/>
+      <c r="A156" s="14"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="12"/>
+      <c r="A157" s="14"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="12"/>
+      <c r="A158" s="14"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="12"/>
+      <c r="A159" s="14"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="12"/>
+      <c r="A160" s="14"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="12"/>
+      <c r="A161" s="14"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="12"/>
+      <c r="A162" s="14"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="12"/>
+      <c r="A163" s="14"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="12"/>
+      <c r="A164" s="14"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="12"/>
+      <c r="A165" s="14"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="12"/>
+      <c r="A166" s="14"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="12"/>
+      <c r="A167" s="14"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="12"/>
+      <c r="A168" s="14"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="12"/>
+      <c r="A169" s="14"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="12"/>
+      <c r="A170" s="14"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="12"/>
+      <c r="A171" s="14"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="12"/>
+      <c r="A172" s="14"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="12"/>
+      <c r="A173" s="14"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="12"/>
+      <c r="A174" s="14"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="12"/>
+      <c r="A175" s="14"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="12"/>
+      <c r="A176" s="14"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="12"/>
+      <c r="A177" s="14"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="12"/>
+      <c r="A178" s="14"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="12"/>
+      <c r="A179" s="14"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="12"/>
+      <c r="A180" s="14"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="12"/>
+      <c r="A181" s="14"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="12"/>
+      <c r="A182" s="14"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="12"/>
+      <c r="A183" s="14"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="12"/>
+      <c r="A184" s="14"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="12"/>
+      <c r="A185" s="14"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="12"/>
+      <c r="A186" s="14"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="12"/>
+      <c r="A187" s="14"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="12"/>
+      <c r="A188" s="14"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="12"/>
+      <c r="A189" s="14"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="12"/>
+      <c r="A190" s="14"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="12"/>
+      <c r="A191" s="14"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="12"/>
+      <c r="A192" s="14"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="12"/>
+      <c r="A193" s="14"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="12"/>
+      <c r="A194" s="14"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="12"/>
+      <c r="A195" s="14"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="12"/>
+      <c r="A196" s="14"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="12"/>
+      <c r="A197" s="14"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="12"/>
+      <c r="A198" s="14"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="12"/>
+      <c r="A199" s="14"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="12"/>
+      <c r="A200" s="14"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="12"/>
+      <c r="A201" s="14"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="12"/>
+      <c r="A202" s="14"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="12"/>
+      <c r="A203" s="14"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="12"/>
+      <c r="A204" s="14"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="12"/>
+      <c r="A205" s="14"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="12"/>
+      <c r="A206" s="14"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="12"/>
+      <c r="A207" s="14"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="12"/>
+      <c r="A208" s="14"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="12"/>
+      <c r="A209" s="14"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="12"/>
+      <c r="A210" s="14"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="12"/>
+      <c r="A211" s="14"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="12"/>
+      <c r="A212" s="14"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="12"/>
+      <c r="A213" s="14"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="12"/>
+      <c r="A214" s="14"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="12"/>
+      <c r="A215" s="14"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="12"/>
+      <c r="A216" s="14"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="12"/>
+      <c r="A217" s="14"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="12"/>
+      <c r="A218" s="14"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="12"/>
+      <c r="A219" s="14"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="12"/>
+      <c r="A220" s="14"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="12"/>
+      <c r="A221" s="14"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="12"/>
+      <c r="A222" s="14"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="12"/>
+      <c r="A223" s="14"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="12"/>
+      <c r="A224" s="14"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="12"/>
+      <c r="A225" s="14"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="12"/>
+      <c r="A226" s="14"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="12"/>
+      <c r="A227" s="14"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="12"/>
+      <c r="A228" s="14"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="12"/>
+      <c r="A229" s="14"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="12"/>
+      <c r="A230" s="14"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="12"/>
+      <c r="A231" s="14"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="12"/>
+      <c r="A232" s="14"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="12"/>
+      <c r="A233" s="14"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="12"/>
+      <c r="A234" s="14"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="12"/>
+      <c r="A235" s="14"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="12"/>
+      <c r="A236" s="14"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="12"/>
+      <c r="A237" s="14"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="12"/>
+      <c r="A238" s="14"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="12"/>
+      <c r="A239" s="14"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="12"/>
+      <c r="A240" s="14"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="12"/>
+      <c r="A241" s="14"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="12"/>
+      <c r="A242" s="14"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="12"/>
+      <c r="A243" s="14"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="12"/>
+      <c r="A244" s="14"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="12"/>
+      <c r="A245" s="14"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="12"/>
+      <c r="A246" s="14"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="12"/>
+      <c r="A247" s="14"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="12"/>
+      <c r="A248" s="14"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="12"/>
+      <c r="A249" s="14"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="12"/>
+      <c r="A250" s="14"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="12"/>
+      <c r="A251" s="14"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="12"/>
+      <c r="A252" s="14"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="12"/>
+      <c r="A253" s="14"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="12"/>
+      <c r="A254" s="14"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="12"/>
+      <c r="A255" s="14"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="12"/>
+      <c r="A256" s="14"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="12"/>
+      <c r="A257" s="14"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="12"/>
+      <c r="A258" s="14"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="12"/>
+      <c r="A259" s="14"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="12"/>
+      <c r="A260" s="14"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="12"/>
+      <c r="A261" s="14"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="12"/>
+      <c r="A262" s="14"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="12"/>
+      <c r="A263" s="14"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="12"/>
+      <c r="A264" s="14"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="12"/>
+      <c r="A265" s="14"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="12"/>
+      <c r="A266" s="14"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="12"/>
+      <c r="A267" s="14"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="12"/>
+      <c r="A268" s="14"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="12"/>
+      <c r="A269" s="14"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="12"/>
+      <c r="A270" s="14"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="12"/>
+      <c r="A271" s="14"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="12"/>
+      <c r="A272" s="14"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="12"/>
+      <c r="A273" s="14"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="12"/>
+      <c r="A274" s="14"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="12"/>
+      <c r="A275" s="14"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="12"/>
+      <c r="A276" s="14"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="12"/>
+      <c r="A277" s="14"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="12"/>
+      <c r="A278" s="14"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="12"/>
+      <c r="A279" s="14"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="12"/>
+      <c r="A280" s="14"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="12"/>
+      <c r="A281" s="14"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="12"/>
+      <c r="A282" s="14"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="12"/>
+      <c r="A283" s="14"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="12"/>
+      <c r="A284" s="14"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="12"/>
+      <c r="A285" s="14"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="12"/>
+      <c r="A286" s="14"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="12"/>
+      <c r="A287" s="14"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="12"/>
+      <c r="A288" s="14"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="12"/>
+      <c r="A289" s="14"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="12"/>
+      <c r="A290" s="14"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="12"/>
+      <c r="A291" s="14"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="12"/>
+      <c r="A292" s="14"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="12"/>
+      <c r="A293" s="14"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="12"/>
+      <c r="A294" s="14"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="12"/>
+      <c r="A295" s="14"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="12"/>
+      <c r="A296" s="14"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="12"/>
+      <c r="A297" s="14"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="12"/>
+      <c r="A298" s="14"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="12"/>
+      <c r="A299" s="14"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="12"/>
+      <c r="A300" s="14"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="12"/>
+      <c r="A301" s="14"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="12"/>
+      <c r="A302" s="14"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="12"/>
+      <c r="A303" s="14"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="12"/>
+      <c r="A304" s="14"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="12"/>
+      <c r="A305" s="14"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="12"/>
+      <c r="A306" s="14"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="12"/>
+      <c r="A307" s="14"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="12"/>
+      <c r="A308" s="14"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="12"/>
+      <c r="A309" s="14"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="12"/>
+      <c r="A310" s="14"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="12"/>
+      <c r="A311" s="14"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="12"/>
+      <c r="A312" s="14"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="12"/>
+      <c r="A313" s="14"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="12"/>
+      <c r="A314" s="14"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="12"/>
+      <c r="A315" s="14"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="12"/>
+      <c r="A316" s="14"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="12"/>
+      <c r="A317" s="14"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="12"/>
+      <c r="A318" s="14"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="12"/>
+      <c r="A319" s="14"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="12"/>
+      <c r="A320" s="14"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="12"/>
+      <c r="A321" s="14"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="12"/>
+      <c r="A322" s="14"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="12"/>
+      <c r="A323" s="14"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="12"/>
+      <c r="A324" s="14"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="12"/>
+      <c r="A325" s="14"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="12"/>
+      <c r="A326" s="14"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="12"/>
+      <c r="A327" s="14"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="12"/>
+      <c r="A328" s="14"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="12"/>
+      <c r="A329" s="14"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="12"/>
+      <c r="A330" s="14"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="12"/>
+      <c r="A331" s="14"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="12"/>
+      <c r="A332" s="14"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="12"/>
+      <c r="A333" s="14"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="12"/>
+      <c r="A334" s="14"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="12"/>
+      <c r="A335" s="14"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="12"/>
+      <c r="A336" s="14"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="12"/>
+      <c r="A337" s="14"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="12"/>
+      <c r="A338" s="14"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="12"/>
+      <c r="A339" s="14"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="12"/>
+      <c r="A340" s="14"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="12"/>
+      <c r="A341" s="14"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="12"/>
+      <c r="A342" s="14"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="12"/>
+      <c r="A343" s="14"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="12"/>
+      <c r="A344" s="14"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="12"/>
+      <c r="A345" s="14"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="12"/>
+      <c r="A346" s="14"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="12"/>
+      <c r="A347" s="14"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="12"/>
+      <c r="A348" s="14"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="12"/>
+      <c r="A349" s="14"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="12"/>
+      <c r="A350" s="14"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="12"/>
+      <c r="A351" s="14"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="12"/>
+      <c r="A352" s="14"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="12"/>
+      <c r="A353" s="14"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="12"/>
+      <c r="A354" s="14"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="12"/>
+      <c r="A355" s="14"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="12"/>
+      <c r="A356" s="14"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="12"/>
+      <c r="A357" s="14"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="12"/>
+      <c r="A358" s="14"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="12"/>
+      <c r="A359" s="14"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="12"/>
+      <c r="A360" s="14"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="12"/>
+      <c r="A361" s="14"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="12"/>
+      <c r="A362" s="14"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="12"/>
+      <c r="A363" s="14"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="12"/>
+      <c r="A364" s="14"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="12"/>
+      <c r="A365" s="14"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="12"/>
+      <c r="A366" s="14"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="12"/>
+      <c r="A367" s="14"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="12"/>
+      <c r="A368" s="14"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="12"/>
+      <c r="A369" s="14"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="12"/>
+      <c r="A370" s="14"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="12"/>
+      <c r="A371" s="14"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="12"/>
+      <c r="A372" s="14"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="12"/>
+      <c r="A373" s="14"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="12"/>
+      <c r="A374" s="14"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="12"/>
+      <c r="A375" s="14"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="12"/>
+      <c r="A376" s="14"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="12"/>
+      <c r="A377" s="14"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="12"/>
+      <c r="A378" s="14"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="12"/>
+      <c r="A379" s="14"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="12"/>
+      <c r="A380" s="14"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="12"/>
+      <c r="A381" s="14"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="12"/>
+      <c r="A382" s="14"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="12"/>
+      <c r="A383" s="14"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="12"/>
+      <c r="A384" s="14"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="12"/>
+      <c r="A385" s="14"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="12"/>
+      <c r="A386" s="14"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="12"/>
+      <c r="A387" s="14"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="12"/>
+      <c r="A388" s="14"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="12"/>
+      <c r="A389" s="14"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="12"/>
+      <c r="A390" s="14"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="12"/>
+      <c r="A391" s="14"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="12"/>
+      <c r="A392" s="14"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="12"/>
+      <c r="A393" s="14"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="12"/>
+      <c r="A394" s="14"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="12"/>
+      <c r="A395" s="14"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="12"/>
+      <c r="A396" s="14"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="12"/>
+      <c r="A397" s="14"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="12"/>
+      <c r="A398" s="14"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="12"/>
+      <c r="A399" s="14"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="12"/>
+      <c r="A400" s="14"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="12"/>
+      <c r="A401" s="14"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="12"/>
+      <c r="A402" s="14"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="12"/>
+      <c r="A403" s="14"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="12"/>
+      <c r="A404" s="14"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="12"/>
+      <c r="A405" s="14"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="12"/>
+      <c r="A406" s="14"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="12"/>
+      <c r="A407" s="14"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="12"/>
+      <c r="A408" s="14"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="12"/>
+      <c r="A409" s="14"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="12"/>
+      <c r="A410" s="14"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="12"/>
+      <c r="A411" s="14"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="12"/>
+      <c r="A412" s="14"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="12"/>
+      <c r="A413" s="14"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="12"/>
+      <c r="A414" s="14"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="12"/>
+      <c r="A415" s="14"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="12"/>
+      <c r="A416" s="14"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="12"/>
+      <c r="A417" s="14"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="12"/>
+      <c r="A418" s="14"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="12"/>
+      <c r="A419" s="14"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="12"/>
+      <c r="A420" s="14"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="12"/>
+      <c r="A421" s="14"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="12"/>
+      <c r="A422" s="14"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="12"/>
+      <c r="A423" s="14"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="12"/>
+      <c r="A424" s="14"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="12"/>
+      <c r="A425" s="14"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="12"/>
+      <c r="A426" s="14"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="12"/>
+      <c r="A427" s="14"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="12"/>
+      <c r="A428" s="14"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="12"/>
+      <c r="A429" s="14"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="12"/>
+      <c r="A430" s="14"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="12"/>
+      <c r="A431" s="14"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="12"/>
+      <c r="A432" s="14"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="12"/>
+      <c r="A433" s="14"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="12"/>
+      <c r="A434" s="14"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="12"/>
+      <c r="A435" s="14"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="12"/>
+      <c r="A436" s="14"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="12"/>
+      <c r="A437" s="14"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="12"/>
+      <c r="A438" s="14"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="12"/>
+      <c r="A439" s="14"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="12"/>
+      <c r="A440" s="14"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="12"/>
+      <c r="A441" s="14"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="12"/>
+      <c r="A442" s="14"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="12"/>
+      <c r="A443" s="14"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="12"/>
+      <c r="A444" s="14"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="12"/>
+      <c r="A445" s="14"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="12"/>
+      <c r="A446" s="14"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="12"/>
+      <c r="A447" s="14"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="12"/>
+      <c r="A448" s="14"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="12"/>
+      <c r="A449" s="14"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="12"/>
+      <c r="A450" s="14"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="12"/>
+      <c r="A451" s="14"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="12"/>
+      <c r="A452" s="14"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="12"/>
+      <c r="A453" s="14"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="12"/>
+      <c r="A454" s="14"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="12"/>
+      <c r="A455" s="14"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="12"/>
+      <c r="A456" s="14"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="12"/>
+      <c r="A457" s="14"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="12"/>
+      <c r="A458" s="14"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="12"/>
+      <c r="A459" s="14"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="12"/>
+      <c r="A460" s="14"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="12"/>
+      <c r="A461" s="14"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="12"/>
+      <c r="A462" s="14"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="12"/>
+      <c r="A463" s="14"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="12"/>
+      <c r="A464" s="14"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="12"/>
+      <c r="A465" s="14"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="12"/>
+      <c r="A466" s="14"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="12"/>
+      <c r="A467" s="14"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="12"/>
+      <c r="A468" s="14"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="12"/>
+      <c r="A469" s="14"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="12"/>
+      <c r="A470" s="14"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="12"/>
+      <c r="A471" s="14"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="12"/>
+      <c r="A472" s="14"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="12"/>
+      <c r="A473" s="14"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="12"/>
+      <c r="A474" s="14"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="12"/>
+      <c r="A475" s="14"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="12"/>
+      <c r="A476" s="14"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="12"/>
+      <c r="A477" s="14"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="12"/>
+      <c r="A478" s="14"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="12"/>
+      <c r="A479" s="14"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="12"/>
+      <c r="A480" s="14"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="12"/>
+      <c r="A481" s="14"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="12"/>
+      <c r="A482" s="14"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="12"/>
+      <c r="A483" s="14"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="12"/>
+      <c r="A484" s="14"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="12"/>
+      <c r="A485" s="14"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="12"/>
+      <c r="A486" s="14"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="12"/>
+      <c r="A487" s="14"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="12"/>
+      <c r="A488" s="14"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="12"/>
+      <c r="A489" s="14"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="12"/>
+      <c r="A490" s="14"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="12"/>
+      <c r="A491" s="14"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="12"/>
+      <c r="A492" s="14"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="12"/>
+      <c r="A493" s="14"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="12"/>
+      <c r="A494" s="14"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="12"/>
+      <c r="A495" s="14"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="12"/>
+      <c r="A496" s="14"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="12"/>
+      <c r="A497" s="14"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="12"/>
+      <c r="A498" s="14"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="12"/>
+      <c r="A499" s="14"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="12"/>
+      <c r="A500" s="14"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="12"/>
+      <c r="A501" s="14"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="12"/>
+      <c r="A502" s="14"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="12"/>
+      <c r="A503" s="14"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="12"/>
+      <c r="A504" s="14"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="12"/>
+      <c r="A505" s="14"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="12"/>
+      <c r="A506" s="14"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="12"/>
+      <c r="A507" s="14"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="12"/>
+      <c r="A508" s="14"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="12"/>
+      <c r="A509" s="14"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="12"/>
+      <c r="A510" s="14"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="12"/>
+      <c r="A511" s="14"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="12"/>
+      <c r="A512" s="14"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="12"/>
+      <c r="A513" s="14"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="12"/>
+      <c r="A514" s="14"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="12"/>
+      <c r="A515" s="14"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="12"/>
+      <c r="A516" s="14"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="12"/>
+      <c r="A517" s="14"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="12"/>
+      <c r="A518" s="14"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="12"/>
+      <c r="A519" s="14"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="12"/>
+      <c r="A520" s="14"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="12"/>
+      <c r="A521" s="14"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="12"/>
+      <c r="A522" s="14"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="12"/>
+      <c r="A523" s="14"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="12"/>
+      <c r="A524" s="14"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="12"/>
+      <c r="A525" s="14"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="12"/>
+      <c r="A526" s="14"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="12"/>
+      <c r="A527" s="14"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="12"/>
+      <c r="A528" s="14"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="12"/>
+      <c r="A529" s="14"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="12"/>
+      <c r="A530" s="14"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="12"/>
+      <c r="A531" s="14"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="12"/>
+      <c r="A532" s="14"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="12"/>
+      <c r="A533" s="14"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="12"/>
+      <c r="A534" s="14"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="12"/>
+      <c r="A535" s="14"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="12"/>
+      <c r="A536" s="14"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="12"/>
+      <c r="A537" s="14"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="12"/>
+      <c r="A538" s="14"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="12"/>
+      <c r="A539" s="14"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="12"/>
+      <c r="A540" s="14"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="12"/>
+      <c r="A541" s="14"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="12"/>
+      <c r="A542" s="14"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="12"/>
+      <c r="A543" s="14"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="12"/>
+      <c r="A544" s="14"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="12"/>
+      <c r="A545" s="14"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="12"/>
+      <c r="A546" s="14"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="12"/>
+      <c r="A547" s="14"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="12"/>
+      <c r="A548" s="14"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="12"/>
+      <c r="A549" s="14"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="12"/>
+      <c r="A550" s="14"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="12"/>
+      <c r="A551" s="14"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="12"/>
+      <c r="A552" s="14"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="12"/>
+      <c r="A553" s="14"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="12"/>
+      <c r="A554" s="14"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="12"/>
+      <c r="A555" s="14"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="12"/>
+      <c r="A556" s="14"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="12"/>
+      <c r="A557" s="14"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="12"/>
+      <c r="A558" s="14"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="12"/>
+      <c r="A559" s="14"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="12"/>
+      <c r="A560" s="14"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="12"/>
+      <c r="A561" s="14"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="12"/>
+      <c r="A562" s="14"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="12"/>
+      <c r="A563" s="14"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="12"/>
+      <c r="A564" s="14"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="12"/>
+      <c r="A565" s="14"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="12"/>
+      <c r="A566" s="14"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="12"/>
+      <c r="A567" s="14"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="12"/>
+      <c r="A568" s="14"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="12"/>
+      <c r="A569" s="14"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="12"/>
+      <c r="A570" s="14"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="12"/>
+      <c r="A571" s="14"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="12"/>
+      <c r="A572" s="14"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="12"/>
+      <c r="A573" s="14"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="12"/>
+      <c r="A574" s="14"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="12"/>
+      <c r="A575" s="14"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="12"/>
+      <c r="A576" s="14"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="12"/>
+      <c r="A577" s="14"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="12"/>
+      <c r="A578" s="14"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="12"/>
+      <c r="A579" s="14"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="12"/>
+      <c r="A580" s="14"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="12"/>
+      <c r="A581" s="14"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="12"/>
+      <c r="A582" s="14"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="12"/>
+      <c r="A583" s="14"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="12"/>
+      <c r="A584" s="14"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="12"/>
+      <c r="A585" s="14"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="12"/>
+      <c r="A586" s="14"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="12"/>
+      <c r="A587" s="14"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="12"/>
+      <c r="A588" s="14"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="12"/>
+      <c r="A589" s="14"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="12"/>
+      <c r="A590" s="14"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="12"/>
+      <c r="A591" s="14"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="12"/>
+      <c r="A592" s="14"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="12"/>
+      <c r="A593" s="14"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="12"/>
+      <c r="A594" s="14"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="12"/>
+      <c r="A595" s="14"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="12"/>
+      <c r="A596" s="14"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="12"/>
+      <c r="A597" s="14"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="12"/>
+      <c r="A598" s="14"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="12"/>
+      <c r="A599" s="14"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="12"/>
+      <c r="A600" s="14"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="12"/>
+      <c r="A601" s="14"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="12"/>
+      <c r="A602" s="14"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="12"/>
+      <c r="A603" s="14"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="12"/>
+      <c r="A604" s="14"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="12"/>
+      <c r="A605" s="14"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="12"/>
+      <c r="A606" s="14"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="12"/>
+      <c r="A607" s="14"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="12"/>
+      <c r="A608" s="14"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="12"/>
+      <c r="A609" s="14"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="12"/>
+      <c r="A610" s="14"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="12"/>
+      <c r="A611" s="14"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="12"/>
+      <c r="A612" s="14"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="12"/>
+      <c r="A613" s="14"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="12"/>
+      <c r="A614" s="14"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="12"/>
+      <c r="A615" s="14"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="12"/>
+      <c r="A616" s="14"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="12"/>
+      <c r="A617" s="14"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="12"/>
+      <c r="A618" s="14"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="12"/>
+      <c r="A619" s="14"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="12"/>
+      <c r="A620" s="14"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="12"/>
+      <c r="A621" s="14"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="12"/>
+      <c r="A622" s="14"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="12"/>
+      <c r="A623" s="14"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="12"/>
+      <c r="A624" s="14"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="12"/>
+      <c r="A625" s="14"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="12"/>
+      <c r="A626" s="14"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="12"/>
+      <c r="A627" s="14"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="12"/>
+      <c r="A628" s="14"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="12"/>
+      <c r="A629" s="14"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="12"/>
+      <c r="A630" s="14"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="12"/>
+      <c r="A631" s="14"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="12"/>
+      <c r="A632" s="14"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="12"/>
+      <c r="A633" s="14"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="12"/>
+      <c r="A634" s="14"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="12"/>
+      <c r="A635" s="14"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="12"/>
+      <c r="A636" s="14"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="12"/>
+      <c r="A637" s="14"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="12"/>
+      <c r="A638" s="14"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="12"/>
+      <c r="A639" s="14"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="12"/>
+      <c r="A640" s="14"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="12"/>
+      <c r="A641" s="14"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="12"/>
+      <c r="A642" s="14"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="12"/>
+      <c r="A643" s="14"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="12"/>
+      <c r="A644" s="14"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="12"/>
+      <c r="A645" s="14"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="12"/>
+      <c r="A646" s="14"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="12"/>
+      <c r="A647" s="14"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="12"/>
+      <c r="A648" s="14"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="12"/>
+      <c r="A649" s="14"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="12"/>
+      <c r="A650" s="14"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="12"/>
+      <c r="A651" s="14"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="12"/>
+      <c r="A652" s="14"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="12"/>
+      <c r="A653" s="14"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="12"/>
+      <c r="A654" s="14"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="12"/>
+      <c r="A655" s="14"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="12"/>
+      <c r="A656" s="14"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="12"/>
+      <c r="A657" s="14"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="12"/>
+      <c r="A658" s="14"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="12"/>
+      <c r="A659" s="14"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="12"/>
+      <c r="A660" s="14"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="12"/>
+      <c r="A661" s="14"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="12"/>
+      <c r="A662" s="14"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="12"/>
+      <c r="A663" s="14"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="12"/>
+      <c r="A664" s="14"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="12"/>
+      <c r="A665" s="14"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="12"/>
+      <c r="A666" s="14"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="12"/>
+      <c r="A667" s="14"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="12"/>
+      <c r="A668" s="14"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="12"/>
+      <c r="A669" s="14"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="12"/>
+      <c r="A670" s="14"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="12"/>
+      <c r="A671" s="14"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="12"/>
+      <c r="A672" s="14"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="12"/>
+      <c r="A673" s="14"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="12"/>
+      <c r="A674" s="14"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="12"/>
+      <c r="A675" s="14"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="12"/>
+      <c r="A676" s="14"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="12"/>
+      <c r="A677" s="14"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="12"/>
+      <c r="A678" s="14"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="12"/>
+      <c r="A679" s="14"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="12"/>
+      <c r="A680" s="14"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="12"/>
+      <c r="A681" s="14"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="12"/>
+      <c r="A682" s="14"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="12"/>
+      <c r="A683" s="14"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="12"/>
+      <c r="A684" s="14"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="12"/>
+      <c r="A685" s="14"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="12"/>
+      <c r="A686" s="14"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="12"/>
+      <c r="A687" s="14"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="12"/>
+      <c r="A688" s="14"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="12"/>
+      <c r="A689" s="14"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="12"/>
+      <c r="A690" s="14"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="12"/>
+      <c r="A691" s="14"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="12"/>
+      <c r="A692" s="14"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="12"/>
+      <c r="A693" s="14"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="12"/>
+      <c r="A694" s="14"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="12"/>
+      <c r="A695" s="14"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="12"/>
+      <c r="A696" s="14"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="12"/>
+      <c r="A697" s="14"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="12"/>
+      <c r="A698" s="14"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="12"/>
+      <c r="A699" s="14"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="12"/>
+      <c r="A700" s="14"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="12"/>
+      <c r="A701" s="14"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="12"/>
+      <c r="A702" s="14"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="12"/>
+      <c r="A703" s="14"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="12"/>
+      <c r="A704" s="14"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="12"/>
+      <c r="A705" s="14"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="12"/>
+      <c r="A706" s="14"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="12"/>
+      <c r="A707" s="14"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="12"/>
+      <c r="A708" s="14"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="12"/>
+      <c r="A709" s="14"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="12"/>
+      <c r="A710" s="14"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="12"/>
+      <c r="A711" s="14"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="12"/>
+      <c r="A712" s="14"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="12"/>
+      <c r="A713" s="14"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="12"/>
+      <c r="A714" s="14"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="12"/>
+      <c r="A715" s="14"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="12"/>
+      <c r="A716" s="14"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="12"/>
+      <c r="A717" s="14"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="12"/>
+      <c r="A718" s="14"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="12"/>
+      <c r="A719" s="14"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="12"/>
+      <c r="A720" s="14"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="12"/>
+      <c r="A721" s="14"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="12"/>
+      <c r="A722" s="14"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="12"/>
+      <c r="A723" s="14"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="12"/>
+      <c r="A724" s="14"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="12"/>
+      <c r="A725" s="14"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="12"/>
+      <c r="A726" s="14"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="12"/>
+      <c r="A727" s="14"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="12"/>
+      <c r="A728" s="14"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="12"/>
+      <c r="A729" s="14"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="12"/>
+      <c r="A730" s="14"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="12"/>
+      <c r="A731" s="14"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="12"/>
+      <c r="A732" s="14"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="12"/>
+      <c r="A733" s="14"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="12"/>
+      <c r="A734" s="14"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="12"/>
+      <c r="A735" s="14"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="12"/>
+      <c r="A736" s="14"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="12"/>
+      <c r="A737" s="14"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="12"/>
+      <c r="A738" s="14"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="12"/>
+      <c r="A739" s="14"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="12"/>
+      <c r="A740" s="14"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="12"/>
+      <c r="A741" s="14"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="12"/>
+      <c r="A742" s="14"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="12"/>
+      <c r="A743" s="14"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="12"/>
+      <c r="A744" s="14"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="12"/>
+      <c r="A745" s="14"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="12"/>
+      <c r="A746" s="14"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="12"/>
+      <c r="A747" s="14"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="12"/>
+      <c r="A748" s="14"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="12"/>
+      <c r="A749" s="14"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="12"/>
+      <c r="A750" s="14"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="12"/>
+      <c r="A751" s="14"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="12"/>
+      <c r="A752" s="14"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="12"/>
+      <c r="A753" s="14"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="12"/>
+      <c r="A754" s="14"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="12"/>
+      <c r="A755" s="14"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="12"/>
+      <c r="A756" s="14"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="12"/>
+      <c r="A757" s="14"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="12"/>
+      <c r="A758" s="14"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="12"/>
+      <c r="A759" s="14"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="12"/>
+      <c r="A760" s="14"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="12"/>
+      <c r="A761" s="14"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="12"/>
+      <c r="A762" s="14"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="12"/>
+      <c r="A763" s="14"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="12"/>
+      <c r="A764" s="14"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="12"/>
+      <c r="A765" s="14"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="12"/>
+      <c r="A766" s="14"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="12"/>
+      <c r="A767" s="14"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="12"/>
+      <c r="A768" s="14"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="12"/>
+      <c r="A769" s="14"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="12"/>
+      <c r="A770" s="14"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="12"/>
+      <c r="A771" s="14"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="12"/>
+      <c r="A772" s="14"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="12"/>
+      <c r="A773" s="14"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="12"/>
+      <c r="A774" s="14"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="12"/>
+      <c r="A775" s="14"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="12"/>
+      <c r="A776" s="14"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="12"/>
+      <c r="A777" s="14"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="12"/>
+      <c r="A778" s="14"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="12"/>
+      <c r="A779" s="14"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="12"/>
+      <c r="A780" s="14"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="12"/>
+      <c r="A781" s="14"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="12"/>
+      <c r="A782" s="14"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="12"/>
+      <c r="A783" s="14"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="12"/>
+      <c r="A784" s="14"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="12"/>
+      <c r="A785" s="14"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="12"/>
+      <c r="A786" s="14"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="12"/>
+      <c r="A787" s="14"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="12"/>
+      <c r="A788" s="14"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="12"/>
+      <c r="A789" s="14"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="12"/>
+      <c r="A790" s="14"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="12"/>
+      <c r="A791" s="14"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="12"/>
+      <c r="A792" s="14"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="12"/>
+      <c r="A793" s="14"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="12"/>
+      <c r="A794" s="14"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="12"/>
+      <c r="A795" s="14"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="12"/>
+      <c r="A796" s="14"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="12"/>
+      <c r="A797" s="14"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="12"/>
+      <c r="A798" s="14"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="12"/>
+      <c r="A799" s="14"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="12"/>
+      <c r="A800" s="14"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="12"/>
+      <c r="A801" s="14"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="12"/>
+      <c r="A802" s="14"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="12"/>
+      <c r="A803" s="14"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="12"/>
+      <c r="A804" s="14"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="12"/>
+      <c r="A805" s="14"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="12"/>
+      <c r="A806" s="14"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="12"/>
+      <c r="A807" s="14"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="12"/>
+      <c r="A808" s="14"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="12"/>
+      <c r="A809" s="14"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="12"/>
+      <c r="A810" s="14"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="12"/>
+      <c r="A811" s="14"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="12"/>
+      <c r="A812" s="14"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="12"/>
+      <c r="A813" s="14"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="12"/>
+      <c r="A814" s="14"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="12"/>
+      <c r="A815" s="14"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="12"/>
+      <c r="A816" s="14"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="12"/>
+      <c r="A817" s="14"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="12"/>
+      <c r="A818" s="14"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="12"/>
+      <c r="A819" s="14"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="12"/>
+      <c r="A820" s="14"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="12"/>
+      <c r="A821" s="14"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="12"/>
+      <c r="A822" s="14"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="12"/>
+      <c r="A823" s="14"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="12"/>
+      <c r="A824" s="14"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="12"/>
+      <c r="A825" s="14"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="12"/>
+      <c r="A826" s="14"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="12"/>
+      <c r="A827" s="14"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="12"/>
+      <c r="A828" s="14"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="12"/>
+      <c r="A829" s="14"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="12"/>
+      <c r="A830" s="14"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="12"/>
+      <c r="A831" s="14"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="12"/>
+      <c r="A832" s="14"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="12"/>
+      <c r="A833" s="14"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="12"/>
+      <c r="A834" s="14"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="12"/>
+      <c r="A835" s="14"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="12"/>
+      <c r="A836" s="14"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="12"/>
+      <c r="A837" s="14"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="12"/>
+      <c r="A838" s="14"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="12"/>
+      <c r="A839" s="14"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="12"/>
+      <c r="A840" s="14"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="12"/>
+      <c r="A841" s="14"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="12"/>
+      <c r="A842" s="14"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="12"/>
+      <c r="A843" s="14"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="12"/>
+      <c r="A844" s="14"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="12"/>
+      <c r="A845" s="14"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="12"/>
+      <c r="A846" s="14"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="12"/>
+      <c r="A847" s="14"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="12"/>
+      <c r="A848" s="14"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="12"/>
+      <c r="A849" s="14"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="12"/>
+      <c r="A850" s="14"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="12"/>
+      <c r="A851" s="14"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="12"/>
+      <c r="A852" s="14"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="12"/>
+      <c r="A853" s="14"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="12"/>
+      <c r="A854" s="14"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="12"/>
+      <c r="A855" s="14"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="12"/>
+      <c r="A856" s="14"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="12"/>
+      <c r="A857" s="14"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="12"/>
+      <c r="A858" s="14"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="12"/>
+      <c r="A859" s="14"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="12"/>
+      <c r="A860" s="14"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="12"/>
+      <c r="A861" s="14"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="12"/>
+      <c r="A862" s="14"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="12"/>
+      <c r="A863" s="14"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="12"/>
+      <c r="A864" s="14"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="12"/>
+      <c r="A865" s="14"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="12"/>
+      <c r="A866" s="14"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="12"/>
+      <c r="A867" s="14"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="12"/>
+      <c r="A868" s="14"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="12"/>
+      <c r="A869" s="14"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="12"/>
+      <c r="A870" s="14"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="12"/>
+      <c r="A871" s="14"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="12"/>
+      <c r="A872" s="14"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="12"/>
+      <c r="A873" s="14"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="12"/>
+      <c r="A874" s="14"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="12"/>
+      <c r="A875" s="14"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="12"/>
+      <c r="A876" s="14"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="12"/>
+      <c r="A877" s="14"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="12"/>
+      <c r="A878" s="14"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="12"/>
+      <c r="A879" s="14"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="12"/>
+      <c r="A880" s="14"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="12"/>
+      <c r="A881" s="14"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="12"/>
+      <c r="A882" s="14"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="12"/>
+      <c r="A883" s="14"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="12"/>
+      <c r="A884" s="14"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="12"/>
+      <c r="A885" s="14"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="12"/>
+      <c r="A886" s="14"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="12"/>
+      <c r="A887" s="14"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="12"/>
+      <c r="A888" s="14"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="12"/>
+      <c r="A889" s="14"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="12"/>
+      <c r="A890" s="14"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="12"/>
+      <c r="A891" s="14"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="12"/>
+      <c r="A892" s="14"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="12"/>
+      <c r="A893" s="14"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="12"/>
+      <c r="A894" s="14"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="12"/>
+      <c r="A895" s="14"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="12"/>
+      <c r="A896" s="14"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="12"/>
+      <c r="A897" s="14"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="12"/>
+      <c r="A898" s="14"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="12"/>
+      <c r="A899" s="14"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="12"/>
+      <c r="A900" s="14"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="12"/>
+      <c r="A901" s="14"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="12"/>
+      <c r="A902" s="14"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="12"/>
+      <c r="A903" s="14"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="12"/>
+      <c r="A904" s="14"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="12"/>
+      <c r="A905" s="14"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="12"/>
+      <c r="A906" s="14"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="12"/>
+      <c r="A907" s="14"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="12"/>
+      <c r="A908" s="14"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="12"/>
+      <c r="A909" s="14"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="12"/>
+      <c r="A910" s="14"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="12"/>
+      <c r="A911" s="14"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="12"/>
+      <c r="A912" s="14"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="12"/>
+      <c r="A913" s="14"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="12"/>
+      <c r="A914" s="14"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="12"/>
+      <c r="A915" s="14"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="12"/>
+      <c r="A916" s="14"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="12"/>
+      <c r="A917" s="14"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="12"/>
+      <c r="A918" s="14"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="12"/>
+      <c r="A919" s="14"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="12"/>
+      <c r="A920" s="14"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="12"/>
+      <c r="A921" s="14"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="12"/>
+      <c r="A922" s="14"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="12"/>
+      <c r="A923" s="14"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="12"/>
+      <c r="A924" s="14"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="12"/>
+      <c r="A925" s="14"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="12"/>
+      <c r="A926" s="14"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="12"/>
+      <c r="A927" s="14"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="12"/>
+      <c r="A928" s="14"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="12"/>
+      <c r="A929" s="14"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="12"/>
+      <c r="A930" s="14"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="12"/>
+      <c r="A931" s="14"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="12"/>
+      <c r="A932" s="14"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="12"/>
+      <c r="A933" s="14"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="12"/>
+      <c r="A934" s="14"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="12"/>
+      <c r="A935" s="14"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="12"/>
+      <c r="A936" s="14"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="12"/>
+      <c r="A937" s="14"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="12"/>
+      <c r="A938" s="14"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="12"/>
+      <c r="A939" s="14"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="12"/>
+      <c r="A940" s="14"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="12"/>
+      <c r="A941" s="14"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="12"/>
+      <c r="A942" s="14"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="12"/>
+      <c r="A943" s="14"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="12"/>
+      <c r="A944" s="14"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="12"/>
+      <c r="A945" s="14"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="12"/>
+      <c r="A946" s="14"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="12"/>
+      <c r="A947" s="14"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="12"/>
+      <c r="A948" s="14"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="12"/>
+      <c r="A949" s="14"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="12"/>
+      <c r="A950" s="14"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="12"/>
+      <c r="A951" s="14"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="12"/>
+      <c r="A952" s="14"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="12"/>
+      <c r="A953" s="14"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="12"/>
+      <c r="A954" s="14"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="12"/>
+      <c r="A955" s="14"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="12"/>
+      <c r="A956" s="14"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="12"/>
+      <c r="A957" s="14"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="12"/>
+      <c r="A958" s="14"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="12"/>
+      <c r="A959" s="14"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="12"/>
+      <c r="A960" s="14"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="12"/>
+      <c r="A961" s="14"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="12"/>
+      <c r="A962" s="14"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="12"/>
+      <c r="A963" s="14"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="12"/>
+      <c r="A964" s="14"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="12"/>
+      <c r="A965" s="14"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="12"/>
+      <c r="A966" s="14"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="12"/>
+      <c r="A967" s="14"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="12"/>
+      <c r="A968" s="14"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="12"/>
+      <c r="A969" s="14"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="12"/>
+      <c r="A970" s="14"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="12"/>
+      <c r="A971" s="14"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="12"/>
+      <c r="A972" s="14"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="12"/>
+      <c r="A973" s="14"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="12"/>
+      <c r="A974" s="14"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="12"/>
+      <c r="A975" s="14"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="12"/>
+      <c r="A976" s="14"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="12"/>
+      <c r="A977" s="14"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="12"/>
+      <c r="A978" s="14"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="12"/>
+      <c r="A979" s="14"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="12"/>
+      <c r="A980" s="14"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="12"/>
+      <c r="A981" s="14"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="12"/>
+      <c r="A982" s="14"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="12"/>
+      <c r="A983" s="14"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="12"/>
+      <c r="A984" s="14"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="12"/>
+      <c r="A985" s="14"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="12"/>
+      <c r="A986" s="14"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="12"/>
+      <c r="A987" s="14"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="12"/>
+      <c r="A988" s="14"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="12"/>
+      <c r="A989" s="14"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="12"/>
+      <c r="A990" s="14"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="12"/>
+      <c r="A991" s="14"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="12"/>
+      <c r="A992" s="14"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="12"/>
+      <c r="A993" s="14"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="12"/>
+      <c r="A994" s="14"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="12"/>
+      <c r="A995" s="14"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="12"/>
+      <c r="A996" s="14"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="12"/>
+      <c r="A997" s="14"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="12"/>
+      <c r="A998" s="14"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="12"/>
+      <c r="A999" s="14"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="12"/>
+      <c r="A1000" s="14"/>
     </row>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="12"/>
+      <c r="A1001" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7369,45 +6394,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="12" t="n">
         <v>0.375</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -7425,7 +6450,7 @@
       <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="12" t="n">
         <v>0.385416666666667</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -7443,7 +6468,7 @@
       <c r="A4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="12" t="n">
         <v>0.395833333333333</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -7461,7 +6486,7 @@
       <c r="A5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="12" t="n">
         <v>0.40625</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -7479,7 +6504,7 @@
       <c r="A6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="12" t="n">
         <v>0.0625</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -7497,7 +6522,7 @@
       <c r="A7" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="12" t="n">
         <v>0.0729166666666667</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -7515,7 +6540,7 @@
       <c r="A8" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="12" t="n">
         <v>0.0833333333333333</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -7533,7 +6558,7 @@
       <c r="A9" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="12" t="n">
         <v>0.09375</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -7551,7 +6576,7 @@
       <c r="A10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="12" t="n">
         <v>0.104166666666667</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -7569,7 +6594,7 @@
       <c r="A11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="12" t="n">
         <v>0.114583333333333</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -7587,7 +6612,7 @@
       <c r="A12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="12" t="n">
         <v>0.166666666666667</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -7605,7 +6630,7 @@
       <c r="A13" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="12" t="n">
         <v>0.177083333333333</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -7623,7 +6648,7 @@
       <c r="A14" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="12" t="n">
         <v>0.1875</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -7641,7 +6666,7 @@
       <c r="A15" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="12" t="n">
         <v>0.197916666666667</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -7659,7 +6684,7 @@
       <c r="A16" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="12" t="n">
         <v>0.208333333333333</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -7692,33 +6717,33 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="12" t="n">
         <v>0.375</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -7728,7 +6753,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
-      <c r="B24" s="10" t="n">
+      <c r="B24" s="12" t="n">
         <v>0.385416666666667</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -7738,7 +6763,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="12" t="n">
         <v>0.395833333333333</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -7748,7 +6773,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
-      <c r="B26" s="10" t="n">
+      <c r="B26" s="12" t="n">
         <v>0.40625</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -7757,16 +6782,16 @@
       <c r="D26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="B28" s="10" t="n">
+      <c r="A28" s="17"/>
+      <c r="B28" s="12" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -7775,8 +6800,8 @@
       <c r="D28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="10" t="n">
+      <c r="A29" s="17"/>
+      <c r="B29" s="12" t="n">
         <v>0.427083333333333</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -7785,16 +6810,16 @@
       <c r="D29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="12" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -7803,24 +6828,24 @@
       <c r="D31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
-      <c r="B34" s="10" t="n">
+      <c r="B34" s="12" t="n">
         <v>0.0625</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -7830,7 +6855,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
-      <c r="B35" s="10" t="n">
+      <c r="B35" s="12" t="n">
         <v>0.0729166666666667</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -7840,7 +6865,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
-      <c r="B36" s="10" t="n">
+      <c r="B36" s="12" t="n">
         <v>0.0833333333333333</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -7850,7 +6875,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
-      <c r="B37" s="10" t="n">
+      <c r="B37" s="12" t="n">
         <v>0.09375</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -7860,7 +6885,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
-      <c r="B38" s="10" t="n">
+      <c r="B38" s="12" t="n">
         <v>0.104166666666667</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -7870,7 +6895,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
-      <c r="B39" s="10" t="n">
+      <c r="B39" s="12" t="n">
         <v>0.114583333333333</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -7879,16 +6904,16 @@
       <c r="D39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15"/>
-      <c r="B41" s="10" t="n">
+      <c r="A41" s="17"/>
+      <c r="B41" s="12" t="n">
         <v>0.125</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -7897,8 +6922,8 @@
       <c r="D41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15"/>
-      <c r="B42" s="10" t="n">
+      <c r="A42" s="17"/>
+      <c r="B42" s="12" t="n">
         <v>0.135416666666667</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -7907,11 +6932,11 @@
       <c r="D42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7926,7 +6951,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7"/>
-      <c r="B45" s="10" t="n">
+      <c r="B45" s="12" t="n">
         <v>0.177083333333333</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -7936,7 +6961,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7"/>
-      <c r="B46" s="10" t="n">
+      <c r="B46" s="12" t="n">
         <v>0.1875</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -7946,7 +6971,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7"/>
-      <c r="B47" s="10" t="n">
+      <c r="B47" s="12" t="n">
         <v>0.197916666666667</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -7956,7 +6981,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7"/>
-      <c r="B48" s="10" t="n">
+      <c r="B48" s="12" t="n">
         <v>0.208333333333333</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -7974,11 +6999,11 @@
       <c r="D49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="4" t="n">
